--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/59/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/59/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6476476476476476</v>
+        <v>0.5503550355035504</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1343.343343343343</v>
+        <v>1615.591559155916</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06686686686686687</v>
+        <v>0.07459745974597461</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1401401401401401</v>
+        <v>0.7282728272827282</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1365.365365365366</v>
+        <v>779.1279127912792</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>984.9849849849851</v>
+        <v>500.7200720072007</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>572.5725725725727</v>
+        <v>54.75157515751575</v>
       </c>
     </row>
   </sheetData>
